--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Agrp</t>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2239496666666667</v>
+        <v>0.7402036666666666</v>
       </c>
       <c r="H2">
-        <v>0.671849</v>
+        <v>2.220611</v>
       </c>
       <c r="I2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="J2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -573,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002169400421</v>
+        <v>0.007170352918999999</v>
       </c>
       <c r="R2">
-        <v>0.019524603789</v>
+        <v>0.064533176271</v>
       </c>
       <c r="S2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="T2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +581,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7402036666666666</v>
+        <v>0.3561633333333333</v>
       </c>
       <c r="H3">
-        <v>2.220611</v>
+        <v>1.06849</v>
       </c>
       <c r="I3">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="J3">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007170352918999999</v>
+        <v>0.00345015421</v>
       </c>
       <c r="R3">
-        <v>0.064533176271</v>
+        <v>0.03105138789</v>
       </c>
       <c r="S3">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="T3">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +643,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1166683333333333</v>
+        <v>4.119219666666667</v>
       </c>
       <c r="H4">
-        <v>0.350005</v>
+        <v>12.357659</v>
       </c>
       <c r="I4">
-        <v>0.02392069323639076</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="J4">
-        <v>0.02392069323639075</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -697,202 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001130166145</v>
+        <v>0.039902880911</v>
       </c>
       <c r="R4">
-        <v>0.010171495305</v>
+        <v>0.359125928199</v>
       </c>
       <c r="S4">
-        <v>0.02392069323639076</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="T4">
-        <v>0.02392069323639075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1911673333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.5735020000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="J5">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.009686999999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.029061</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.001851837958</v>
-      </c>
-      <c r="R5">
-        <v>0.016666541622</v>
-      </c>
-      <c r="S5">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="T5">
-        <v>0.03919534124500099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.024446</v>
-      </c>
-      <c r="H6">
-        <v>9.073338</v>
-      </c>
-      <c r="I6">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="J6">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.009686999999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.029061</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.029297808402</v>
-      </c>
-      <c r="R6">
-        <v>0.263680275618</v>
-      </c>
-      <c r="S6">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="T6">
-        <v>0.6201069554094576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.5808623333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.742587</v>
-      </c>
-      <c r="I7">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="J7">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.009686999999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.029061</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.005626813422999999</v>
-      </c>
-      <c r="R7">
-        <v>0.050641320807</v>
-      </c>
-      <c r="S7">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="T7">
-        <v>0.119095124540285</v>
+        <v>0.7897902824610334</v>
       </c>
     </row>
   </sheetData>
